--- a/data/trans_bre/P20-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P20-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>195,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>191,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1899,71%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 6,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 8,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 9,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 11,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,49; 580,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,24; 360,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,65; 485,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>273,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>219,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>386,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,31%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 11,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,57; 13,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 11,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 8,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>136,58; 515,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>110,59; 382,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>167,16; 970,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,93; 450,38</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,75%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,71; 6,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 5,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 217,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,42; 133,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,05; 268,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 187,75</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,38%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 3,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 6,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 3,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 1,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,39; 112,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 140,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,65; 154,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,07; 28,76</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,94%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 3,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; 1,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,57; -0,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,21; 117,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,23; 72,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,16; 28,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,51; -5,76</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,0%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 4,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 2,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,17; 2,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,49; -1,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,93; 60,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,62; 25,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,16; 26,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,4; -14,15</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 4,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 4,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 4,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 1,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,22; 120,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,37; 87,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,11; 93,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,13; 30,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1899,71%</t>
+          <t>1842,5%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 11,97</t>
+          <t>3,2; 11,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>140,31%</t>
+          <t>104,74%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 8,26</t>
+          <t>-0,53; 7,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 450,38</t>
+          <t>-11,77; 368,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>65,64%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,08</t>
+          <t>0,28; 5,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 187,75</t>
+          <t>3,51; 195,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,38%</t>
+          <t>-3,08%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,11</t>
+          <t>-2,69; 2,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,07; 28,76</t>
+          <t>-43,55; 127,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-35,94%</t>
+          <t>-35,78%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; -0,44</t>
+          <t>-5,62; -0,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,51; -5,76</t>
+          <t>-55,39; -6,55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,57%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,2%</t>
+          <t>-29,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-33,0%</t>
+          <t>-61,64%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 4,0</t>
+          <t>-3,74; 4,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 2,4</t>
+          <t>-5,21; 4,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,19</t>
+          <t>-8,13; 0,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,49; -1,15</t>
+          <t>-10,24; -2,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 60,31</t>
+          <t>-38,16; 82,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 25,42</t>
+          <t>-42,52; 61,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 26,58</t>
+          <t>-57,8; 11,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,4; -14,15</t>
+          <t>-86,22; -34,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>78,47%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>-21,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>-11,71%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-4,84; 5,38</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 2,13</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 6,33</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 2,03</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-39,35; 80,9</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-49,58; 19,96</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-29,53; 106,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-37,68; 22,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>78,47%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>55,82%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>60,11%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,04; 4,39</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,08; 4,7</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,66; 4,03</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1,55</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 1,93</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>44,22; 120,32</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>31,37; 87,04</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>30,11; 93,92</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-11,13; 30,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-14,02; 42,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P20-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,95</t>
+          <t>1,68; 6,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,16</t>
+          <t>1,48; 8,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 9,25</t>
+          <t>2,46; 9,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 11,78</t>
+          <t>3,57; 12,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,49; 580,72</t>
+          <t>32,52; 601,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,24; 360,15</t>
+          <t>24,32; 385,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,65; 485,06</t>
+          <t>49,66; 503,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 11,9</t>
+          <t>5,99; 11,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 13,41</t>
+          <t>6,7; 13,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,27 +783,27 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 7,1</t>
+          <t>-0,64; 7,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>136,58; 515,27</t>
+          <t>123,69; 521,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>110,59; 382,59</t>
+          <t>114,02; 386,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>167,16; 970,29</t>
+          <t>169,96; 957,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 368,98</t>
+          <t>-13,97; 372,44</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,23</t>
+          <t>0,18; 4,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,52</t>
+          <t>-0,28; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,97</t>
+          <t>1,72; 7,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,09</t>
+          <t>0,31; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 217,74</t>
+          <t>1,32; 241,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 133,48</t>
+          <t>-4,93; 124,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,05; 268,49</t>
+          <t>36,99; 290,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 195,34</t>
+          <t>1,51; 186,11</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,41</t>
+          <t>-1,84; 3,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 6,04</t>
+          <t>-0,2; 5,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,71</t>
+          <t>-0,89; 3,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,84</t>
+          <t>-2,6; 3,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 112,15</t>
+          <t>-32,66; 110,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 140,03</t>
+          <t>-3,52; 135,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 154,52</t>
+          <t>-22,43; 143,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 127,66</t>
+          <t>-43,74; 154,6</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,36</t>
+          <t>-2,11; 4,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,5</t>
+          <t>-2,94; 3,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,31</t>
+          <t>-5,18; 1,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; -0,46</t>
+          <t>-5,71; -0,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 117,04</t>
+          <t>-33,51; 117,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 72,35</t>
+          <t>-36,68; 82,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-58,16; 28,34</t>
+          <t>-58,33; 21,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,39; -6,55</t>
+          <t>-55,75; -5,9</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,68</t>
+          <t>-3,46; 4,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 4,32</t>
+          <t>-4,45; 4,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 0,82</t>
+          <t>-8,2; 1,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,24; -2,98</t>
+          <t>-10,59; -2,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 82,28</t>
+          <t>-33,67; 94,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 61,8</t>
+          <t>-38,56; 66,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-57,8; 11,21</t>
+          <t>-56,9; 18,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-86,22; -34,48</t>
+          <t>-88,72; -33,5</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 5,38</t>
+          <t>-4,66; 5,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 2,13</t>
+          <t>-9,56; 2,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,33</t>
+          <t>-3,24; 6,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 2,03</t>
+          <t>-5,09; 2,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-39,35; 80,9</t>
+          <t>-38,03; 88,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 19,96</t>
+          <t>-49,63; 25,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 106,44</t>
+          <t>-31,34; 101,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 22,01</t>
+          <t>-38,23; 26,99</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,39</t>
+          <t>2,16; 4,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>1,98; 4,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,03</t>
+          <t>1,7; 4,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,93</t>
+          <t>-0,81; 1,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,22; 120,32</t>
+          <t>44,27; 120,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,37; 87,04</t>
+          <t>29,09; 87,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,11; 93,92</t>
+          <t>33,15; 95,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 42,13</t>
+          <t>-13,47; 41,27</t>
         </is>
       </c>
     </row>
